--- a/CalibrationRegs.xlsx
+++ b/CalibrationRegs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Igor-\OneDrive\Documentos\Arduino\libraries\FOXATM90E36\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Documents\Arduino\libraries\ATM90E36\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1902" documentId="7D2F1148AB20A1C70F803DB1C80E1DC4B2B8457A" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{F311E0F0-CE59-4D0F-B558-58B63E07B316}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB8ACA8-D068-4EC4-9FE8-905EAE187709}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1785" yWindow="1920" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Energy Pulses (PL_constant)" sheetId="4" r:id="rId1"/>
@@ -21,10 +21,16 @@
     <sheet name="Harmonic Calibration" sheetId="8" r:id="rId6"/>
     <sheet name="Measurement Calibration" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1340,6 +1346,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1406,16 +1418,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1708,7 +1714,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2004,10 +2010,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B9:D27"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2026,7 +2033,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="4">
-        <v>36964.595556806329</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
@@ -2035,7 +2042,7 @@
       </c>
       <c r="C10" s="2">
         <f>INT(450000000000/C9)</f>
-        <v>12173811</v>
+        <v>140625000</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
@@ -2044,7 +2051,7 @@
       </c>
       <c r="C11" s="2" t="str">
         <f>DEC2HEX(C10,8)</f>
-        <v>00B9C1F3</v>
+        <v>0861C468</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
@@ -2053,7 +2060,7 @@
       </c>
       <c r="C12" s="2" t="str">
         <f>LEFT(C11,4)</f>
-        <v>00B9</v>
+        <v>0861</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
@@ -2062,7 +2069,7 @@
       </c>
       <c r="C13" s="2" t="str">
         <f>RIGHT(C11,4)</f>
-        <v>C1F3</v>
+        <v>C468</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -2122,10 +2129,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A76F2C-166A-417D-B285-B098583EC68C}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:M28"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2141,12 +2149,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
@@ -2161,13 +2169,13 @@
       <c r="E3" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="5">
@@ -2182,13 +2190,13 @@
       <c r="E4" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
@@ -2203,13 +2211,13 @@
       <c r="E5" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
@@ -2224,25 +2232,25 @@
       <c r="E6" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="32" t="s">
         <v>118</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -2254,16 +2262,16 @@
       <c r="E8" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="31"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="9">
         <v>200</v>
       </c>
@@ -2273,63 +2281,63 @@
       <c r="E9" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="29">
         <v>1</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
@@ -2342,13 +2350,13 @@
       <c r="E14" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
@@ -2365,13 +2373,13 @@
       <c r="E15" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
@@ -2386,13 +2394,13 @@
       <c r="E16" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
@@ -2409,13 +2417,13 @@
       <c r="E17" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
@@ -2432,13 +2440,13 @@
       <c r="E18" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
@@ -2455,30 +2463,30 @@
       <c r="E19" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="D22" s="22"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="5" t="s">
         <v>127</v>
       </c>
@@ -2487,11 +2495,11 @@
       <c r="B23" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="22">
         <f>0.1/2</f>
         <v>0.05</v>
       </c>
-      <c r="D23" s="20"/>
+      <c r="D23" s="22"/>
       <c r="E23" s="5" t="s">
         <v>129</v>
       </c>
@@ -2500,11 +2508,11 @@
       <c r="B24" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="23">
         <f>C23*D17^2</f>
         <v>0.45</v>
       </c>
-      <c r="D24" s="22"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="5" t="s">
         <v>132</v>
       </c>
@@ -2545,17 +2553,18 @@
     <mergeCell ref="B21:E21"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F08D5F-1814-42D9-8E0E-7D1E2A4DC135}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:J28"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D19" activeCellId="1" sqref="D24 D19"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2566,93 +2575,93 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
@@ -2665,10 +2674,10 @@
       <c r="D13" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
@@ -2680,16 +2689,16 @@
       <c r="D14" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
@@ -2701,10 +2710,10 @@
       <c r="D16" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
@@ -2716,10 +2725,10 @@
       <c r="D17" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
@@ -2732,10 +2741,10 @@
         <f>DEC2HEX(C18,4)</f>
         <v>CE40</v>
       </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
@@ -2749,10 +2758,10 @@
         <f>DEC2HEX(C19,4)</f>
         <v>CE40</v>
       </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -2822,9 +2831,9 @@
       <c r="D26" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="37"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
@@ -2838,14 +2847,14 @@
         <f>DEC2HEX(C27,4)</f>
         <v>0027</v>
       </c>
-      <c r="F27" s="36"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="40"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F28" s="39"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2860,10 +2869,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:W52"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2901,11 +2911,11 @@
       <c r="D2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
       <c r="H2" s="16" t="s">
         <v>30</v>
       </c>
@@ -2956,13 +2966,13 @@
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
@@ -2974,29 +2984,29 @@
       <c r="G3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="15" t="s">
         <v>72</v>
       </c>
@@ -3006,157 +3016,157 @@
       <c r="G4" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="23" t="s">
+      <c r="B5" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="23" t="str">
+      <c r="E5" s="25" t="str">
         <f>"0x"&amp;'Energy Pulses (PL_constant)'!C12</f>
-        <v>0x00B9</v>
-      </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23" t="s">
+        <v>0x0861</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="23" t="str">
+      <c r="E7" s="25" t="str">
         <f>"0x"&amp;'Energy Pulses (PL_constant)'!C13</f>
-        <v>0xC1F3</v>
-      </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23" t="s">
+        <v>0xC468</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="23" t="str">
+      <c r="E9" s="25" t="str">
         <f>"0x"&amp;BIN2HEX(CONCATENATE(H10,I10,J10,K10,L10,M10,N10,O10))&amp;BIN2HEX(CONCATENATE(P10,Q10,R10,S10,T10,U10,V10,W10),2)</f>
         <v>0x1087</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
       <c r="H9" s="15" t="s">
         <v>15</v>
       </c>
@@ -3207,12 +3217,12 @@
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
       <c r="H10" s="15">
         <v>0</v>
       </c>
@@ -3263,61 +3273,61 @@
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="23" t="str">
+      <c r="E11" s="25" t="str">
         <f>"0x"&amp;BIN2HEX(CONCATENATE(H12,I12,J12,K12,L12,M12,N12,O12),2)&amp;BIN2HEX(CONCATENATE(P12,Q12,R12,S12,T12,U12,V12,W12),2)</f>
-        <v>0x0000</v>
-      </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23" t="s">
+        <v>0x1555</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23" t="s">
+      <c r="I11" s="25"/>
+      <c r="J11" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23" t="s">
+      <c r="K11" s="25"/>
+      <c r="L11" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23" t="s">
+      <c r="M11" s="25"/>
+      <c r="N11" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23" t="s">
+      <c r="O11" s="25"/>
+      <c r="P11" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23" t="s">
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23" t="s">
+      <c r="S11" s="25"/>
+      <c r="T11" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23" t="s">
+      <c r="U11" s="25"/>
+      <c r="V11" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="W11" s="23"/>
+      <c r="W11" s="25"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
       <c r="H12" s="15">
         <v>0</v>
       </c>
@@ -3328,87 +3338,87 @@
         <v>0</v>
       </c>
       <c r="K12" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="15">
         <v>0</v>
       </c>
       <c r="M12" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="15">
         <v>0</v>
       </c>
       <c r="O12" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="15">
         <v>0</v>
       </c>
       <c r="Q12" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="15">
         <v>0</v>
       </c>
       <c r="S12" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="15">
         <v>0</v>
       </c>
       <c r="U12" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="15">
         <v>0</v>
       </c>
       <c r="W12" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="23" t="str">
+      <c r="E13" s="25" t="str">
         <f>"0x"&amp;BIN2HEX(CONCATENATE(H14,I14,J14,K14,L14,M14,N14,O14),2)&amp;BIN2HEX(CONCATENATE(P14,Q14,R14,S14,T14,U14,V14,W14),2)</f>
         <v>0x0001</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23" t="s">
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
       <c r="H14" s="15">
         <v>0</v>
       </c>
@@ -3459,47 +3469,47 @@
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="23" t="str">
+      <c r="E15" s="25" t="str">
         <f>"0x"&amp;BIN2HEX(CONCATENATE(H16,I16,J16,K16,L16,M16,N16,O16),2)&amp;BIN2HEX(CONCATENATE(P16,Q16,R16,S16,T16,U16,V16,W16),2)</f>
         <v>0x0001</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23" t="s">
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
       <c r="H16" s="15">
         <v>0</v>
       </c>
@@ -3550,47 +3560,47 @@
       </c>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="23" t="str">
+      <c r="E17" s="25" t="str">
         <f>"0x"&amp;BIN2HEX(CONCATENATE(H18,I18,J18,K18,L18,M18,N18,O18),2)&amp;BIN2HEX(CONCATENATE(P18,Q18,R18,S18,T18,U18,V18,W18),2)</f>
         <v>0x0001</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23" t="s">
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
       <c r="H18" s="15">
         <v>0</v>
       </c>
@@ -3641,47 +3651,47 @@
       </c>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="23" t="str">
+      <c r="E19" s="25" t="str">
         <f>"0x"&amp;BIN2HEX(CONCATENATE(H20,I20,J20,K20,L20,M20,N20,O20),2)&amp;BIN2HEX(CONCATENATE(P20,Q20,R20,S20,T20,U20,V20,W20),2)</f>
         <v>0x0001</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23" t="s">
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
       <c r="H20" s="15">
         <v>0</v>
       </c>
@@ -3732,47 +3742,47 @@
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="23" t="str">
+      <c r="E21" s="25" t="str">
         <f>"0x"&amp;BIN2HEX(CONCATENATE(H22,I22,J22,K22,L22,M22,N22,O22),2)&amp;BIN2HEX(CONCATENATE(P22,Q22,R22,S22,T22,U22,V22,W22),2)</f>
         <v>0x0001</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23" t="s">
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
       <c r="H22" s="15">
         <v>0</v>
       </c>
@@ -3823,47 +3833,47 @@
       </c>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="E23" s="23" t="str">
+      <c r="E23" s="25" t="str">
         <f>"0x"&amp;BIN2HEX(CONCATENATE(H24,I24,J24,K24,L24,M24,N24,O24),2)&amp;BIN2HEX(CONCATENATE(P24,Q24,R24,S24,T24,U24,V24,W24),2)</f>
         <v>0x0001</v>
       </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23" t="s">
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
       <c r="H24" s="15">
         <v>0</v>
       </c>
@@ -3914,78 +3924,78 @@
       </c>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="23" t="str">
+      <c r="E25" s="25" t="str">
         <f>"0x"&amp;H30&amp;RIGHT(I30,2)</f>
-        <v>0x1C0A</v>
-      </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="33" t="s">
+        <v>0x129C</v>
+      </c>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="35"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="37"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="41"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="43"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="G28" s="43" t="s">
+      <c r="G28" s="44" t="s">
         <v>337</v>
       </c>
-      <c r="H28" s="43"/>
+      <c r="H28" s="44"/>
       <c r="I28" s="4" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="32"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="18" t="s">
         <v>109</v>
       </c>
@@ -3995,10 +4005,10 @@
       <c r="F29" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="G29" s="32" t="s">
+      <c r="G29" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="H29" s="32"/>
+      <c r="H29" s="34"/>
       <c r="I29" s="18" t="s">
         <v>113</v>
       </c>
@@ -4012,24 +4022,24 @@
       </c>
       <c r="D30" s="8" t="str">
         <f>LEFT('Energy Pulses (PL_constant)'!C12,2)</f>
-        <v>00</v>
+        <v>08</v>
       </c>
       <c r="E30" s="17" t="str">
         <f>HEX2BIN(D30,8)</f>
-        <v>00000000</v>
+        <v>00001000</v>
       </c>
       <c r="F30" s="17">
         <f t="shared" ref="F30:F40" si="0">HEX2DEC(D30)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G30" s="17"/>
-      <c r="H30" s="23" t="str">
+      <c r="H30" s="25" t="str">
         <f>BIN2HEX(G49,2)</f>
-        <v>1C</v>
-      </c>
-      <c r="I30" s="23" t="str">
+        <v>12</v>
+      </c>
+      <c r="I30" s="25" t="str">
         <f>DEC2HEX(MOD(SUM(F30:F49),2^8),2)</f>
-        <v>0A</v>
+        <v>9C</v>
       </c>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
@@ -4041,22 +4051,22 @@
       </c>
       <c r="D31" s="17" t="str">
         <f>LEFT('Energy Pulses (PL_constant)'!C13,2)</f>
-        <v>C1</v>
+        <v>C4</v>
       </c>
       <c r="E31" s="17" t="str">
         <f t="shared" ref="E31:E39" si="1">HEX2BIN(D31,8)</f>
-        <v>11000001</v>
+        <v>11000100</v>
       </c>
       <c r="F31" s="17">
         <f t="shared" si="0"/>
-        <v>193</v>
-      </c>
-      <c r="G31" s="44" t="str">
+        <v>196</v>
+      </c>
+      <c r="G31" s="20" t="str">
         <f>RIGHT(DEC2BIN(_xlfn.BITXOR(BIN2DEC(E30),BIN2DEC(E31))),7)</f>
-        <v>1000001</v>
-      </c>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
+        <v>1001100</v>
+      </c>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B32" s="17" t="s">
@@ -4078,11 +4088,11 @@
         <v>16</v>
       </c>
       <c r="G32" s="17" t="str">
-        <f>RIGHT(DEC2BIN(_xlfn.BITXOR(BIN2DEC(E32),BIN2DEC(G31))),7)</f>
-        <v>1010001</v>
-      </c>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
+        <f t="shared" ref="G32:G49" si="2">RIGHT(DEC2BIN(_xlfn.BITXOR(BIN2DEC(E32),BIN2DEC(G31))),7)</f>
+        <v>1011100</v>
+      </c>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="17" t="s">
@@ -4093,22 +4103,22 @@
       </c>
       <c r="D33" s="17" t="str">
         <f>BIN2HEX(CONCATENATE(H12,I12,J12,K12,L12,M12,N12,O12),2)</f>
-        <v>00</v>
+        <v>15</v>
       </c>
       <c r="E33" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>00000000</v>
+        <v>00010101</v>
       </c>
       <c r="F33" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G33" s="17" t="str">
-        <f>RIGHT(DEC2BIN(_xlfn.BITXOR(BIN2DEC(E33),BIN2DEC(G32))),7)</f>
-        <v>1010001</v>
-      </c>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
+        <f t="shared" si="2"/>
+        <v>1001001</v>
+      </c>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="17" t="s">
@@ -4130,11 +4140,11 @@
         <v>0</v>
       </c>
       <c r="G34" s="17" t="str">
-        <f>RIGHT(DEC2BIN(_xlfn.BITXOR(BIN2DEC(E34),BIN2DEC(G33))),7)</f>
-        <v>1010001</v>
-      </c>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
+        <f t="shared" si="2"/>
+        <v>1001001</v>
+      </c>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="17" t="s">
@@ -4156,11 +4166,11 @@
         <v>0</v>
       </c>
       <c r="G35" s="17" t="str">
-        <f>RIGHT(DEC2BIN(_xlfn.BITXOR(BIN2DEC(E35),BIN2DEC(G34))),7)</f>
-        <v>1010001</v>
-      </c>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
+        <f t="shared" si="2"/>
+        <v>1001001</v>
+      </c>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="17" t="s">
@@ -4182,11 +4192,11 @@
         <v>0</v>
       </c>
       <c r="G36" s="17" t="str">
-        <f>RIGHT(DEC2BIN(_xlfn.BITXOR(BIN2DEC(E36),BIN2DEC(G35))),7)</f>
-        <v>1010001</v>
-      </c>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
+        <f t="shared" si="2"/>
+        <v>1001001</v>
+      </c>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="17" t="s">
@@ -4208,11 +4218,11 @@
         <v>0</v>
       </c>
       <c r="G37" s="17" t="str">
-        <f>RIGHT(DEC2BIN(_xlfn.BITXOR(BIN2DEC(E37),BIN2DEC(G36))),7)</f>
-        <v>1010001</v>
-      </c>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
+        <f t="shared" si="2"/>
+        <v>1001001</v>
+      </c>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="17" t="s">
@@ -4234,11 +4244,11 @@
         <v>0</v>
       </c>
       <c r="G38" s="17" t="str">
-        <f>RIGHT(DEC2BIN(_xlfn.BITXOR(BIN2DEC(E38),BIN2DEC(G37))),7)</f>
-        <v>1010001</v>
-      </c>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
+        <f t="shared" si="2"/>
+        <v>1001001</v>
+      </c>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="17" t="s">
@@ -4260,11 +4270,11 @@
         <v>0</v>
       </c>
       <c r="G39" s="17" t="str">
-        <f>RIGHT(DEC2BIN(_xlfn.BITXOR(BIN2DEC(E39),BIN2DEC(G38))),7)</f>
-        <v>1010001</v>
-      </c>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
+        <f t="shared" si="2"/>
+        <v>1001001</v>
+      </c>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="17" t="s">
@@ -4275,22 +4285,22 @@
       </c>
       <c r="D40" s="17" t="str">
         <f>RIGHT('Energy Pulses (PL_constant)'!C12,2)</f>
-        <v>B9</v>
+        <v>61</v>
       </c>
       <c r="E40" s="17" t="str">
         <f>HEX2BIN(D40,8)</f>
-        <v>10111001</v>
+        <v>01100001</v>
       </c>
       <c r="F40" s="17">
         <f t="shared" si="0"/>
-        <v>185</v>
+        <v>97</v>
       </c>
       <c r="G40" s="17" t="str">
-        <f>RIGHT(DEC2BIN(_xlfn.BITXOR(BIN2DEC(E40),BIN2DEC(G39))),7)</f>
-        <v>1101000</v>
-      </c>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
+        <f t="shared" si="2"/>
+        <v>101000</v>
+      </c>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="17" t="s">
@@ -4301,22 +4311,22 @@
       </c>
       <c r="D41" s="17" t="str">
         <f>RIGHT('Energy Pulses (PL_constant)'!C13,2)</f>
-        <v>F3</v>
+        <v>68</v>
       </c>
       <c r="E41" s="17" t="str">
-        <f t="shared" ref="E41:E49" si="2">HEX2BIN(D41,8)</f>
-        <v>11110011</v>
+        <f t="shared" ref="E41:E49" si="3">HEX2BIN(D41,8)</f>
+        <v>01101000</v>
       </c>
       <c r="F41" s="17">
-        <f t="shared" ref="F41:F49" si="3">HEX2DEC(D41)</f>
-        <v>243</v>
+        <f t="shared" ref="F41:F49" si="4">HEX2DEC(D41)</f>
+        <v>104</v>
       </c>
       <c r="G41" s="17" t="str">
-        <f>RIGHT(DEC2BIN(_xlfn.BITXOR(BIN2DEC(E41),BIN2DEC(G40))),7)</f>
-        <v>0011011</v>
-      </c>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
+        <f t="shared" si="2"/>
+        <v>1000000</v>
+      </c>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="17" t="s">
@@ -4330,19 +4340,19 @@
         <v>87</v>
       </c>
       <c r="E42" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>10000111</v>
+      </c>
+      <c r="F42" s="17">
+        <f t="shared" si="4"/>
+        <v>135</v>
+      </c>
+      <c r="G42" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>10000111</v>
-      </c>
-      <c r="F42" s="17">
-        <f t="shared" si="3"/>
-        <v>135</v>
-      </c>
-      <c r="G42" s="17" t="str">
-        <f>RIGHT(DEC2BIN(_xlfn.BITXOR(BIN2DEC(E42),BIN2DEC(G41))),7)</f>
-        <v>0011100</v>
-      </c>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
+        <v>1000111</v>
+      </c>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="17" t="s">
@@ -4353,22 +4363,22 @@
       </c>
       <c r="D43" s="17" t="str">
         <f>BIN2HEX(CONCATENATE(P12,Q12,R12,S12,T12,U12,V12,W12),2)</f>
-        <v>00</v>
+        <v>55</v>
       </c>
       <c r="E43" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>01010101</v>
+      </c>
+      <c r="F43" s="17">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="G43" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>00000000</v>
-      </c>
-      <c r="F43" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="17" t="str">
-        <f>RIGHT(DEC2BIN(_xlfn.BITXOR(BIN2DEC(E43),BIN2DEC(G42))),7)</f>
-        <v>11100</v>
-      </c>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
+        <v>10010</v>
+      </c>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
@@ -4382,19 +4392,19 @@
         <v>01</v>
       </c>
       <c r="E44" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>00000001</v>
+      </c>
+      <c r="F44" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G44" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>00000001</v>
-      </c>
-      <c r="F44" s="17">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="G44" s="17" t="str">
-        <f>RIGHT(DEC2BIN(_xlfn.BITXOR(BIN2DEC(E44),BIN2DEC(G43))),7)</f>
-        <v>11101</v>
-      </c>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
+        <v>10011</v>
+      </c>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="17" t="s">
@@ -4408,19 +4418,19 @@
         <v>01</v>
       </c>
       <c r="E45" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>00000001</v>
+      </c>
+      <c r="F45" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G45" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>00000001</v>
-      </c>
-      <c r="F45" s="17">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="G45" s="17" t="str">
-        <f>RIGHT(DEC2BIN(_xlfn.BITXOR(BIN2DEC(E45),BIN2DEC(G44))),7)</f>
-        <v>11100</v>
-      </c>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
+        <v>10010</v>
+      </c>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
@@ -4434,19 +4444,19 @@
         <v>01</v>
       </c>
       <c r="E46" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>00000001</v>
+      </c>
+      <c r="F46" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G46" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>00000001</v>
-      </c>
-      <c r="F46" s="17">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="G46" s="17" t="str">
-        <f>RIGHT(DEC2BIN(_xlfn.BITXOR(BIN2DEC(E46),BIN2DEC(G45))),7)</f>
-        <v>11101</v>
-      </c>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
+        <v>10011</v>
+      </c>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="17" t="s">
@@ -4460,19 +4470,19 @@
         <v>01</v>
       </c>
       <c r="E47" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>00000001</v>
+      </c>
+      <c r="F47" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G47" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>00000001</v>
-      </c>
-      <c r="F47" s="17">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="G47" s="17" t="str">
-        <f>RIGHT(DEC2BIN(_xlfn.BITXOR(BIN2DEC(E47),BIN2DEC(G46))),7)</f>
-        <v>11100</v>
-      </c>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
+        <v>10010</v>
+      </c>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
@@ -4486,19 +4496,19 @@
         <v>01</v>
       </c>
       <c r="E48" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>00000001</v>
+      </c>
+      <c r="F48" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G48" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>00000001</v>
-      </c>
-      <c r="F48" s="17">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="G48" s="17" t="str">
-        <f>RIGHT(DEC2BIN(_xlfn.BITXOR(BIN2DEC(E48),BIN2DEC(G47))),7)</f>
-        <v>11101</v>
-      </c>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
+        <v>10011</v>
+      </c>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="17" t="s">
@@ -4512,19 +4522,19 @@
         <v>01</v>
       </c>
       <c r="E49" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>00000001</v>
+      </c>
+      <c r="F49" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G49" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>00000001</v>
-      </c>
-      <c r="F49" s="17">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="G49" s="17" t="str">
-        <f>RIGHT(DEC2BIN(_xlfn.BITXOR(BIN2DEC(E49),BIN2DEC(G48))),7)</f>
-        <v>11100</v>
-      </c>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
+        <v>10010</v>
+      </c>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G50" s="14"/>
@@ -4536,6 +4546,61 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:G22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:G24"/>
+    <mergeCell ref="H3:W4"/>
+    <mergeCell ref="H15:W15"/>
+    <mergeCell ref="H13:W13"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="H5:W6"/>
+    <mergeCell ref="H7:W8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:G10"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:G8"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:G6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="H25:W26"/>
+    <mergeCell ref="I30:I49"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:G18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:G20"/>
+    <mergeCell ref="H23:W23"/>
+    <mergeCell ref="H21:W21"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:G26"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="H30:H49"/>
@@ -4552,61 +4617,6 @@
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="R11:S11"/>
-    <mergeCell ref="H25:W26"/>
-    <mergeCell ref="I30:I49"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:G18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:G20"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:G6"/>
-    <mergeCell ref="H3:W4"/>
-    <mergeCell ref="H15:W15"/>
-    <mergeCell ref="H13:W13"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="H5:W6"/>
-    <mergeCell ref="H7:W8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:G10"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:G8"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="H23:W23"/>
-    <mergeCell ref="H21:W21"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:G26"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:G22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:G24"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4618,6 +4628,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0316F52-F51A-4FDC-B381-1E64152C8F8A}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="B2:W63"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -4662,11 +4673,11 @@
       <c r="D2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
       <c r="H2" s="7" t="s">
         <v>30</v>
       </c>
@@ -4717,13 +4728,13 @@
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="25" t="s">
         <v>182</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -4735,29 +4746,29 @@
       <c r="G3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="5" t="s">
         <v>72</v>
       </c>
@@ -4767,65 +4778,65 @@
       <c r="G4" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="E5" s="23" t="str">
+      <c r="E5" s="25" t="str">
         <f>"0x"&amp;BIN2HEX(CONCATENATE(H6,I6,J6,K6,L6,M6,N6,O6),2)&amp;BIN2HEX(CONCATENATE(P6,Q6,R6,S6,T6,U6,V6,W6),2)</f>
         <v>0x0000</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="21" t="s">
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="22"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="24"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="6">
         <v>0</v>
       </c>
@@ -4876,47 +4887,47 @@
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="E7" s="23" t="str">
+      <c r="E7" s="25" t="str">
         <f>"0x"&amp;BIN2HEX(CONCATENATE(H8,I8,J8,K8,L8,M8,N8,O8),2)&amp;BIN2HEX(CONCATENATE(P8,Q8,R8,S8,T8,U8,V8,W8),2)</f>
         <v>0x0000</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="21" t="s">
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="22"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="24"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="6">
         <v>0</v>
       </c>
@@ -4967,47 +4978,47 @@
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="E9" s="23" t="str">
+      <c r="E9" s="25" t="str">
         <f>"0x"&amp;BIN2HEX(CONCATENATE(H10,I10,J10,K10,L10,M10,N10,O10),2)&amp;BIN2HEX(CONCATENATE(P10,Q10,R10,S10,T10,U10,V10,W10),2)</f>
         <v>0x0000</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="21" t="s">
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="22"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="24"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
       <c r="H10" s="6">
         <v>0</v>
       </c>
@@ -5058,47 +5069,47 @@
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="23" t="str">
+      <c r="E11" s="25" t="str">
         <f>"0x"&amp;BIN2HEX(CONCATENATE(H12,I12,J12,K12,L12,M12,N12,O12),2)&amp;BIN2HEX(CONCATENATE(P12,Q12,R12,S12,T12,U12,V12,W12),2)</f>
         <v>0x0000</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="21" t="s">
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="22"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="24"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
       <c r="H12" s="6">
         <v>0</v>
       </c>
@@ -5149,47 +5160,47 @@
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="E13" s="23" t="str">
+      <c r="E13" s="25" t="str">
         <f>"0x"&amp;BIN2HEX(CONCATENATE(H14,I14,J14,K14,L14,M14,N14,O14),2)&amp;BIN2HEX(CONCATENATE(P14,Q14,R14,S14,T14,U14,V14,W14),2)</f>
         <v>0x0000</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="21" t="s">
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="22"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="24"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
       <c r="H14" s="6">
         <v>0</v>
       </c>
@@ -5240,47 +5251,47 @@
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="E15" s="23" t="str">
+      <c r="E15" s="25" t="str">
         <f>"0x"&amp;BIN2HEX(CONCATENATE(H16,I16,J16,K16,L16,M16,N16,O16),2)&amp;BIN2HEX(CONCATENATE(P16,Q16,R16,S16,T16,U16,V16,W16),2)</f>
         <v>0x0000</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="21" t="s">
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="22"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="24"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
       <c r="H16" s="6">
         <v>0</v>
       </c>
@@ -5331,47 +5342,47 @@
       </c>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="E17" s="23" t="str">
+      <c r="E17" s="25" t="str">
         <f>"0x"&amp;BIN2HEX(CONCATENATE(H18,I18,J18,K18,L18,M18,N18,O18),2)&amp;BIN2HEX(CONCATENATE(P18,Q18,R18,S18,T18,U18,V18,W18),2)</f>
         <v>0x0000</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="21" t="s">
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="22"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="24"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
       <c r="H18" s="6">
         <v>0</v>
       </c>
@@ -5422,47 +5433,47 @@
       </c>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="E19" s="23" t="str">
+      <c r="E19" s="25" t="str">
         <f>"0x"&amp;BIN2HEX(CONCATENATE(H20,I20,J20,K20,L20,M20,N20,O20),2)&amp;BIN2HEX(CONCATENATE(P20,Q20,R20,S20,T20,U20,V20,W20),2)</f>
         <v>0x0000</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="21" t="s">
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="22"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="45"/>
+      <c r="W19" s="24"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
       <c r="H20" s="6">
         <v>0</v>
       </c>
@@ -5513,47 +5524,47 @@
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="E21" s="23" t="str">
+      <c r="E21" s="25" t="str">
         <f>"0x"&amp;BIN2HEX(CONCATENATE(H22,I22,J22,K22,L22,M22,N22,O22),2)&amp;BIN2HEX(CONCATENATE(P22,Q22,R22,S22,T22,U22,V22,W22),2)</f>
         <v>0x0000</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="21" t="s">
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="22"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="24"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
       <c r="H22" s="6">
         <v>0</v>
       </c>
@@ -5604,47 +5615,47 @@
       </c>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="E23" s="23" t="str">
+      <c r="E23" s="25" t="str">
         <f>"0x"&amp;BIN2HEX(CONCATENATE(H24,I24,J24,K24,L24,M24,N24,O24),2)&amp;BIN2HEX(CONCATENATE(P24,Q24,R24,S24,T24,U24,V24,W24),2)</f>
         <v>0x0000</v>
       </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="21" t="s">
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
-      <c r="W23" s="22"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="24"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
       <c r="H24" s="6">
         <v>0</v>
       </c>
@@ -5695,47 +5706,47 @@
       </c>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="E25" s="23" t="str">
+      <c r="E25" s="25" t="str">
         <f>"0x"&amp;BIN2HEX(CONCATENATE(H26,I26,J26,K26,L26,M26,N26,O26),2)&amp;BIN2HEX(CONCATENATE(P26,Q26,R26,S26,T26,U26,V26,W26),2)</f>
         <v>0x0000</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="21" t="s">
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="42"/>
-      <c r="W25" s="22"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="24"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
       <c r="H26" s="6">
         <v>0</v>
       </c>
@@ -5786,47 +5797,47 @@
       </c>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="E27" s="23" t="str">
+      <c r="E27" s="25" t="str">
         <f>"0x"&amp;BIN2HEX(CONCATENATE(H28,I28,J28,K28,L28,M28,N28,O28),2)&amp;BIN2HEX(CONCATENATE(P28,Q28,R28,S28,T28,U28,V28,W28),2)</f>
         <v>0x0000</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="21" t="s">
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="22"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="45"/>
+      <c r="V27" s="45"/>
+      <c r="W27" s="24"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B28" s="23"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
       <c r="H28" s="6">
         <v>0</v>
       </c>
@@ -5877,47 +5888,47 @@
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="E29" s="23" t="str">
+      <c r="E29" s="25" t="str">
         <f>"0x"&amp;H36&amp;RIGHT(I36,2)</f>
         <v>0x0000</v>
       </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="21" t="s">
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="42"/>
-      <c r="T29" s="42"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="42"/>
-      <c r="W29" s="22"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="45"/>
+      <c r="W29" s="24"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
       <c r="H30" s="6">
         <v>0</v>
       </c>
@@ -5968,20 +5979,20 @@
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G34" s="43" t="s">
+      <c r="G34" s="44" t="s">
         <v>337</v>
       </c>
-      <c r="H34" s="43"/>
+      <c r="H34" s="44"/>
       <c r="I34" s="4" t="s">
         <v>336</v>
       </c>
       <c r="K34" s="19"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="32"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="18" t="s">
         <v>109</v>
       </c>
@@ -5991,14 +6002,14 @@
       <c r="F35" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="G35" s="32" t="s">
+      <c r="G35" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="H35" s="32"/>
+      <c r="H35" s="34"/>
       <c r="I35" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="K35" s="45"/>
+      <c r="K35" s="21"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="17" t="s">
@@ -6020,11 +6031,11 @@
         <v>0</v>
       </c>
       <c r="G36" s="17"/>
-      <c r="H36" s="23" t="str">
+      <c r="H36" s="25" t="str">
         <f>BIN2HEX(G59,2)</f>
         <v>00</v>
       </c>
-      <c r="I36" s="23" t="str">
+      <c r="I36" s="25" t="str">
         <f>DEC2HEX(MOD(SUM(F36:F55),2^8),2)</f>
         <v>00</v>
       </c>
@@ -6049,12 +6060,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G37" s="44" t="str">
+      <c r="G37" s="20" t="str">
         <f>RIGHT(DEC2BIN(_xlfn.BITXOR(BIN2DEC(E36),BIN2DEC(E37))),7)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
       <c r="K37" s="12"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
@@ -6080,8 +6091,8 @@
         <f>RIGHT(DEC2BIN(_xlfn.BITXOR(BIN2DEC(E38),BIN2DEC(G37))),7)</f>
         <v>0</v>
       </c>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
       <c r="K38" s="12"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
@@ -6107,8 +6118,8 @@
         <f t="shared" ref="G39:G59" si="2">RIGHT(DEC2BIN(_xlfn.BITXOR(BIN2DEC(E39),BIN2DEC(G38))),7)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
       <c r="K39" s="12"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
@@ -6134,8 +6145,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
       <c r="K40" s="12"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
@@ -6161,8 +6172,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
       <c r="K41" s="12"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -6188,8 +6199,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
       <c r="K42" s="12"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
@@ -6215,8 +6226,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
       <c r="K43" s="12"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
@@ -6242,8 +6253,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
       <c r="K44" s="12"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
@@ -6269,8 +6280,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
       <c r="K45" s="12"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
@@ -6296,8 +6307,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
       <c r="K46" s="12"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
@@ -6323,8 +6334,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
       <c r="K47" s="12"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
@@ -6350,8 +6361,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
       <c r="K48" s="12"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
@@ -6377,8 +6388,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
       <c r="K49" s="12"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
@@ -6404,8 +6415,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
       <c r="K50" s="12"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
@@ -6431,8 +6442,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
       <c r="K51" s="12"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
@@ -6458,8 +6469,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
       <c r="K52" s="12"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
@@ -6485,8 +6496,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
       <c r="K53" s="12"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
@@ -6512,8 +6523,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
       <c r="K54" s="12"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
@@ -6539,8 +6550,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
       <c r="K55" s="12"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
@@ -6566,8 +6577,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
       <c r="K56" s="12"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
@@ -6593,8 +6604,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
       <c r="K57" s="12"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
@@ -6620,8 +6631,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
       <c r="K58" s="12"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
@@ -6647,8 +6658,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
       <c r="K59" s="12"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
@@ -6678,6 +6689,66 @@
     </row>
   </sheetData>
   <mergeCells count="75">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:G6"/>
+    <mergeCell ref="H5:W5"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="H3:W4"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:G10"/>
+    <mergeCell ref="H9:W9"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:G8"/>
+    <mergeCell ref="H7:W7"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:G14"/>
+    <mergeCell ref="H13:W13"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:G12"/>
+    <mergeCell ref="H11:W11"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:G18"/>
+    <mergeCell ref="H17:W17"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:G16"/>
+    <mergeCell ref="H15:W15"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:G22"/>
+    <mergeCell ref="H21:W21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:G20"/>
+    <mergeCell ref="H19:W19"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:G26"/>
+    <mergeCell ref="H25:W25"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:G24"/>
+    <mergeCell ref="H23:W23"/>
     <mergeCell ref="H36:H59"/>
     <mergeCell ref="I36:I59"/>
     <mergeCell ref="B35:C35"/>
@@ -6693,66 +6764,6 @@
     <mergeCell ref="H29:W29"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="G35:H35"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:G24"/>
-    <mergeCell ref="H23:W23"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:G26"/>
-    <mergeCell ref="H25:W25"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:G20"/>
-    <mergeCell ref="H19:W19"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:G22"/>
-    <mergeCell ref="H21:W21"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:G16"/>
-    <mergeCell ref="H15:W15"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:G18"/>
-    <mergeCell ref="H17:W17"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:G12"/>
-    <mergeCell ref="H11:W11"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:G14"/>
-    <mergeCell ref="H13:W13"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:G8"/>
-    <mergeCell ref="H7:W7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:G10"/>
-    <mergeCell ref="H9:W9"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="H3:W4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:G6"/>
-    <mergeCell ref="H5:W5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6761,6 +6772,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC898C2-ADED-4971-BA3C-66021DC5B799}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:W63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6805,11 +6817,11 @@
       <c r="D2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
       <c r="H2" s="18" t="s">
         <v>30</v>
       </c>
@@ -6860,13 +6872,13 @@
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="25" t="s">
         <v>235</v>
       </c>
       <c r="E3" s="17" t="s">
@@ -6878,29 +6890,29 @@
       <c r="G3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="17" t="s">
         <v>72</v>
       </c>
@@ -6910,65 +6922,65 @@
       <c r="G4" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="E5" s="23" t="str">
+      <c r="E5" s="25" t="str">
         <f>"0x"&amp;BIN2HEX(CONCATENATE(H6,I6,J6,K6,L6,M6,N6,O6),2)&amp;BIN2HEX(CONCATENATE(P6,Q6,R6,S6,T6,U6,V6,W6),2)</f>
         <v>0x0000</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23" t="s">
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="17">
         <v>0</v>
       </c>
@@ -7019,47 +7031,47 @@
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="E7" s="23" t="str">
+      <c r="E7" s="25" t="str">
         <f>"0x"&amp;BIN2HEX(CONCATENATE(H8,I8,J8,K8,L8,M8,N8,O8),2)&amp;BIN2HEX(CONCATENATE(P8,Q8,R8,S8,T8,U8,V8,W8),2)</f>
         <v>0x0000</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23" t="s">
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="17">
         <v>0</v>
       </c>
@@ -7110,47 +7122,47 @@
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="E9" s="23" t="str">
+      <c r="E9" s="25" t="str">
         <f>"0x"&amp;BIN2HEX(CONCATENATE(H10,I10,J10,K10,L10,M10,N10,O10),2)&amp;BIN2HEX(CONCATENATE(P10,Q10,R10,S10,T10,U10,V10,W10),2)</f>
         <v>0x0000</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23" t="s">
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
       <c r="H10" s="17">
         <v>0</v>
       </c>
@@ -7201,47 +7213,47 @@
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="E11" s="23" t="str">
+      <c r="E11" s="25" t="str">
         <f>"0x"&amp;BIN2HEX(CONCATENATE(H12,I12,J12,K12,L12,M12,N12,O12),2)&amp;BIN2HEX(CONCATENATE(P12,Q12,R12,S12,T12,U12,V12,W12),2)</f>
         <v>0x0000</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23" t="s">
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
       <c r="H12" s="17">
         <v>0</v>
       </c>
@@ -7292,47 +7304,47 @@
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="E13" s="23" t="str">
+      <c r="E13" s="25" t="str">
         <f>"0x"&amp;BIN2HEX(CONCATENATE(H14,I14,J14,K14,L14,M14,N14,O14),2)&amp;BIN2HEX(CONCATENATE(P14,Q14,R14,S14,T14,U14,V14,W14),2)</f>
         <v>0x0000</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23" t="s">
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
       <c r="H14" s="17">
         <v>0</v>
       </c>
@@ -7383,47 +7395,47 @@
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="E15" s="23" t="str">
+      <c r="E15" s="25" t="str">
         <f>"0x"&amp;BIN2HEX(CONCATENATE(H16,I16,J16,K16,L16,M16,N16,O16),2)&amp;BIN2HEX(CONCATENATE(P16,Q16,R16,S16,T16,U16,V16,W16),2)</f>
         <v>0x0000</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23" t="s">
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
       <c r="H16" s="17">
         <v>0</v>
       </c>
@@ -7474,47 +7486,47 @@
       </c>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="E17" s="23" t="str">
+      <c r="E17" s="25" t="str">
         <f>"0x"&amp;H36&amp;RIGHT(I36,2)</f>
         <v>0x0000</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23" t="s">
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
       <c r="H18" s="17">
         <v>0</v>
       </c>
@@ -7577,19 +7589,19 @@
     <row r="29" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G34" s="43" t="s">
+      <c r="G34" s="44" t="s">
         <v>337</v>
       </c>
-      <c r="H34" s="43"/>
+      <c r="H34" s="44"/>
       <c r="I34" s="4" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="32"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="18" t="s">
         <v>109</v>
       </c>
@@ -7599,10 +7611,10 @@
       <c r="F35" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="G35" s="32" t="s">
+      <c r="G35" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="H35" s="32"/>
+      <c r="H35" s="34"/>
       <c r="I35" s="18" t="s">
         <v>113</v>
       </c>
@@ -7627,11 +7639,11 @@
         <v>0</v>
       </c>
       <c r="G36" s="17"/>
-      <c r="H36" s="30" t="str">
+      <c r="H36" s="32" t="str">
         <f>BIN2HEX(G54,2)</f>
         <v>00</v>
       </c>
-      <c r="I36" s="30" t="str">
+      <c r="I36" s="32" t="str">
         <f>DEC2HEX(MOD(SUM(F36:F42)+SUM(F48:F54),2^8),2)</f>
         <v>00</v>
       </c>
@@ -7655,7 +7667,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G37" s="44" t="str">
+      <c r="G37" s="20" t="str">
         <f>RIGHT(DEC2BIN(_xlfn.BITXOR(BIN2DEC(E36),BIN2DEC(E37))),7)</f>
         <v>0</v>
       </c>
@@ -7888,7 +7900,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="17" t="str">
-        <f>RIGHT(DEC2BIN(_xlfn.BITXOR(BIN2DEC(E49),BIN2DEC(G48))),7)</f>
+        <f t="shared" ref="G49:G54" si="3">RIGHT(DEC2BIN(_xlfn.BITXOR(BIN2DEC(E49),BIN2DEC(G48))),7)</f>
         <v>0</v>
       </c>
       <c r="H49" s="46"/>
@@ -7914,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="17" t="str">
-        <f>RIGHT(DEC2BIN(_xlfn.BITXOR(BIN2DEC(E50),BIN2DEC(G49))),7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H50" s="46"/>
@@ -7940,7 +7952,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="17" t="str">
-        <f>RIGHT(DEC2BIN(_xlfn.BITXOR(BIN2DEC(E51),BIN2DEC(G50))),7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H51" s="46"/>
@@ -7966,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="17" t="str">
-        <f>RIGHT(DEC2BIN(_xlfn.BITXOR(BIN2DEC(E52),BIN2DEC(G51))),7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H52" s="46"/>
@@ -7992,7 +8004,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="17" t="str">
-        <f>RIGHT(DEC2BIN(_xlfn.BITXOR(BIN2DEC(E53),BIN2DEC(G52))),7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H53" s="46"/>
@@ -8018,11 +8030,11 @@
         <v>0</v>
       </c>
       <c r="G54" s="17" t="str">
-        <f>RIGHT(DEC2BIN(_xlfn.BITXOR(BIN2DEC(E54),BIN2DEC(G53))),7)</f>
-        <v>0</v>
-      </c>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="19"/>
@@ -8073,7 +8085,7 @@
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D60" s="19"/>
       <c r="E60" s="19" t="str">
-        <f t="shared" ref="E60" si="3">P27&amp;Q27&amp;R27&amp;S27&amp;T27&amp;U27&amp;V27&amp;W27</f>
+        <f t="shared" ref="E60" si="4">P27&amp;Q27&amp;R27&amp;S27&amp;T27&amp;U27&amp;V27&amp;W27</f>
         <v/>
       </c>
       <c r="F60" s="19"/>
@@ -8081,7 +8093,7 @@
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D61" s="19"/>
       <c r="E61" s="19" t="str">
-        <f t="shared" ref="E61" si="4">P29&amp;Q29&amp;R29&amp;S29&amp;T29&amp;U29&amp;V29&amp;W29</f>
+        <f t="shared" ref="E61" si="5">P29&amp;Q29&amp;R29&amp;S29&amp;T29&amp;U29&amp;V29&amp;W29</f>
         <v/>
       </c>
       <c r="F61" s="19"/>
@@ -8097,30 +8109,11 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="I36:I54"/>
-    <mergeCell ref="H36:H54"/>
-    <mergeCell ref="H5:W5"/>
-    <mergeCell ref="H7:W7"/>
-    <mergeCell ref="H9:W9"/>
-    <mergeCell ref="H11:W11"/>
-    <mergeCell ref="H17:W17"/>
-    <mergeCell ref="E5:G6"/>
-    <mergeCell ref="E15:G16"/>
-    <mergeCell ref="H15:W15"/>
-    <mergeCell ref="E11:G12"/>
-    <mergeCell ref="E7:G8"/>
-    <mergeCell ref="E9:G10"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:G14"/>
-    <mergeCell ref="H13:W13"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:G18"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="H3:W4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
@@ -8137,11 +8130,30 @@
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="H3:W4"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:G14"/>
+    <mergeCell ref="H13:W13"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:G18"/>
+    <mergeCell ref="E5:G6"/>
+    <mergeCell ref="E15:G16"/>
+    <mergeCell ref="H15:W15"/>
+    <mergeCell ref="E11:G12"/>
+    <mergeCell ref="E7:G8"/>
+    <mergeCell ref="E9:G10"/>
+    <mergeCell ref="I36:I54"/>
+    <mergeCell ref="H36:H54"/>
+    <mergeCell ref="H5:W5"/>
+    <mergeCell ref="H7:W7"/>
+    <mergeCell ref="H9:W9"/>
+    <mergeCell ref="H11:W11"/>
+    <mergeCell ref="H17:W17"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8150,10 +8162,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58ACB54F-D210-48A2-B420-290E1787E6E3}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:W70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8194,11 +8207,11 @@
       <c r="D2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
       <c r="H2" s="7" t="s">
         <v>30</v>
       </c>
@@ -8249,13 +8262,13 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="25" t="s">
         <v>243</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -8267,32 +8280,32 @@
       <c r="G3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="5" t="s">
         <v>72</v>
       </c>
@@ -8302,73 +8315,73 @@
       <c r="G4" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="str">
         <f>HEX2BIN("CE",8)</f>
         <v>11001110</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="E5" s="23" t="str">
+      <c r="E5" s="25" t="str">
         <f>"0x"&amp;BIN2HEX(CONCATENATE(H6,I6,J6,K6,L6,M6,N6,O6),2)&amp;BIN2HEX(CONCATENATE(P6,Q6,R6,S6,T6,U6,V6,W6),2)</f>
         <v>0x0000</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="21" t="s">
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="22"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="24"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="str">
         <f>HEX2BIN("40",8)</f>
         <v>01000000</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="6">
         <v>0</v>
       </c>
@@ -8419,50 +8432,50 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="E7" s="23" t="str">
+      <c r="E7" s="25" t="str">
         <f>"0x"&amp;BIN2HEX(CONCATENATE(H8,I8,J8,K8,L8,M8,N8,O8),2)&amp;BIN2HEX(CONCATENATE(P8,Q8,R8,S8,T8,U8,V8,W8),2)</f>
         <v>0x0000</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="21" t="s">
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="22"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="24"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="6">
         <v>0</v>
       </c>
@@ -8517,51 +8530,51 @@
         <f>HEX2BIN("0B",8)</f>
         <v>00001011</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="E9" s="23" t="str">
+      <c r="E9" s="25" t="str">
         <f>"0x"&amp;BIN2HEX(CONCATENATE(H10,I10,J10,K10,L10,M10,N10,O10),2)&amp;BIN2HEX(CONCATENATE(P10,Q10,R10,S10,T10,U10,V10,W10),2)</f>
         <v>0x0000</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="21" t="s">
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="22"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="24"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
         <f>HEX2BIN("B8",8)</f>
         <v>10111000</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
       <c r="H10" s="6">
         <v>0</v>
       </c>
@@ -8612,47 +8625,47 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="E11" s="23" t="str">
+      <c r="E11" s="25" t="str">
         <f>"0x"&amp;BIN2HEX(CONCATENATE(H12,I12,J12,K12,L12,M12,N12,O12),2)&amp;BIN2HEX(CONCATENATE(P12,Q12,R12,S12,T12,U12,V12,W12),2)</f>
         <v>0x0000</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="21" t="s">
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="22"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="24"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
       <c r="H12" s="6">
         <v>0</v>
       </c>
@@ -8703,47 +8716,47 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="E13" s="23" t="str">
+      <c r="E13" s="25" t="str">
         <f>"0x"&amp;BIN2HEX(CONCATENATE(H14,I14,J14,K14,L14,M14,N14,O14),2)&amp;BIN2HEX(CONCATENATE(P14,Q14,R14,S14,T14,U14,V14,W14),2)</f>
         <v>0x0000</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="21" t="s">
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="22"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="24"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
       <c r="H14" s="6">
         <v>0</v>
       </c>
@@ -8794,47 +8807,47 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="E15" s="23" t="str">
+      <c r="E15" s="25" t="str">
         <f>"0x"&amp;BIN2HEX(CONCATENATE(H16,I16,J16,K16,L16,M16,N16,O16),2)&amp;BIN2HEX(CONCATENATE(P16,Q16,R16,S16,T16,U16,V16,W16),2)</f>
         <v>0x0000</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="21" t="s">
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="22"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="24"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
       <c r="H16" s="6">
         <v>0</v>
       </c>
@@ -8885,47 +8898,47 @@
       </c>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="E17" s="23" t="str">
+      <c r="E17" s="25" t="str">
         <f>"0x"&amp;BIN2HEX(CONCATENATE(H18,I18,J18,K18,L18,M18,N18,O18),2)&amp;BIN2HEX(CONCATENATE(P18,Q18,R18,S18,T18,U18,V18,W18),2)</f>
         <v>0x0000</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="21" t="s">
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="22"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="24"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
       <c r="H18" s="6">
         <v>0</v>
       </c>
@@ -8976,47 +8989,47 @@
       </c>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="E19" s="23" t="str">
+      <c r="E19" s="25" t="str">
         <f>"0x"&amp;BIN2HEX(CONCATENATE(H20,I20,J20,K20,L20,M20,N20,O20),2)&amp;BIN2HEX(CONCATENATE(P20,Q20,R20,S20,T20,U20,V20,W20),2)</f>
         <v>0x0000</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="21" t="s">
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="22"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="45"/>
+      <c r="W19" s="24"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
       <c r="H20" s="6">
         <v>0</v>
       </c>
@@ -9067,47 +9080,47 @@
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="E21" s="23" t="str">
+      <c r="E21" s="25" t="str">
         <f>"0x"&amp;BIN2HEX(CONCATENATE(H22,I22,J22,K22,L22,M22,N22,O22),2)&amp;BIN2HEX(CONCATENATE(P22,Q22,R22,S22,T22,U22,V22,W22),2)</f>
         <v>0x0000</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="21" t="s">
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="22"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="24"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
       <c r="H22" s="6">
         <v>0</v>
       </c>
@@ -9158,47 +9171,47 @@
       </c>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="E23" s="23" t="str">
+      <c r="E23" s="25" t="str">
         <f>"0x"&amp;BIN2HEX(CONCATENATE(H24,I24,J24,K24,L24,M24,N24,O24),2)&amp;BIN2HEX(CONCATENATE(P24,Q24,R24,S24,T24,U24,V24,W24),2)</f>
         <v>0x0000</v>
       </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="21" t="s">
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
-      <c r="W23" s="22"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="24"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
       <c r="H24" s="6">
         <v>0</v>
       </c>
@@ -9249,47 +9262,47 @@
       </c>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="E25" s="23" t="str">
+      <c r="E25" s="25" t="str">
         <f>"0x"&amp;BIN2HEX(CONCATENATE(H26,I26,J26,K26,L26,M26,N26,O26),2)&amp;BIN2HEX(CONCATENATE(P26,Q26,R26,S26,T26,U26,V26,W26),2)</f>
         <v>0x0000</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="21" t="s">
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="42"/>
-      <c r="W25" s="22"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="24"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
       <c r="H26" s="6">
         <v>0</v>
       </c>
@@ -9340,47 +9353,47 @@
       </c>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="E27" s="23" t="str">
+      <c r="E27" s="25" t="str">
         <f>"0x"&amp;BIN2HEX(CONCATENATE(H28,I28,J28,K28,L28,M28,N28,O28),2)&amp;BIN2HEX(CONCATENATE(P28,Q28,R28,S28,T28,U28,V28,W28),2)</f>
         <v>0x0000</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="21" t="s">
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="22"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="45"/>
+      <c r="V27" s="45"/>
+      <c r="W27" s="24"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
       <c r="H28" s="6">
         <v>0</v>
       </c>
@@ -9431,47 +9444,47 @@
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="E29" s="23" t="str">
+      <c r="E29" s="25" t="str">
         <f>"0x"&amp;BIN2HEX(CONCATENATE(H30,I30,J30,K30,L30,M30,N30,O30),2)&amp;BIN2HEX(CONCATENATE(P30,Q30,R30,S30,T30,U30,V30,W30),2)</f>
         <v>0x0000</v>
       </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="21" t="s">
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="42"/>
-      <c r="T29" s="42"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="42"/>
-      <c r="W29" s="22"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="45"/>
+      <c r="W29" s="24"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
       <c r="H30" s="6">
         <v>0</v>
       </c>
@@ -9522,47 +9535,47 @@
       </c>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="E31" s="23" t="str">
+      <c r="E31" s="25" t="str">
         <f>"0x"&amp;BIN2HEX(CONCATENATE(H32,I32,J32,K32,L32,M32,N32,O32),2)&amp;BIN2HEX(CONCATENATE(P32,Q32,R32,S32,T32,U32,V32,W32),2)</f>
         <v>0x0000</v>
       </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="21" t="s">
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42"/>
-      <c r="S31" s="42"/>
-      <c r="T31" s="42"/>
-      <c r="U31" s="42"/>
-      <c r="V31" s="42"/>
-      <c r="W31" s="22"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="45"/>
+      <c r="W31" s="24"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
       <c r="H32" s="6">
         <v>0</v>
       </c>
@@ -9613,47 +9626,47 @@
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="E33" s="23" t="str">
+      <c r="E33" s="25" t="str">
         <f>"0x"&amp;H38&amp;RIGHT(I38,2)</f>
         <v>0x0000</v>
       </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="21" t="s">
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="42"/>
-      <c r="S33" s="42"/>
-      <c r="T33" s="42"/>
-      <c r="U33" s="42"/>
-      <c r="V33" s="42"/>
-      <c r="W33" s="22"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="45"/>
+      <c r="W33" s="24"/>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
       <c r="H34" s="6">
         <v>0</v>
       </c>
@@ -9704,19 +9717,19 @@
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="G36" s="43" t="s">
+      <c r="G36" s="44" t="s">
         <v>337</v>
       </c>
-      <c r="H36" s="43"/>
+      <c r="H36" s="44"/>
       <c r="I36" s="4" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="32"/>
+      <c r="C37" s="34"/>
       <c r="D37" s="18" t="s">
         <v>109</v>
       </c>
@@ -9726,10 +9739,10 @@
       <c r="F37" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="G37" s="32" t="s">
+      <c r="G37" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="H37" s="32"/>
+      <c r="H37" s="34"/>
       <c r="I37" s="18" t="s">
         <v>113</v>
       </c>
@@ -9754,11 +9767,11 @@
         <v>0</v>
       </c>
       <c r="G38" s="17"/>
-      <c r="H38" s="23" t="str">
+      <c r="H38" s="25" t="str">
         <f>BIN2HEX(G65,2)</f>
         <v>00</v>
       </c>
-      <c r="I38" s="23" t="str">
+      <c r="I38" s="25" t="str">
         <f>DEC2HEX(MOD(SUM(F38:F65),2^8),2)</f>
         <v>00</v>
       </c>
@@ -9782,12 +9795,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G39" s="44" t="str">
+      <c r="G39" s="20" t="str">
         <f>RIGHT(DEC2BIN(_xlfn.BITXOR(BIN2DEC(E38),BIN2DEC(E39))),7)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B40" s="17" t="s">
@@ -9812,8 +9825,8 @@
         <f>RIGHT(DEC2BIN(_xlfn.BITXOR(BIN2DEC(E40),BIN2DEC(G39))),7)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B41" s="17" t="s">
@@ -9838,8 +9851,8 @@
         <f t="shared" ref="G41:G65" si="2">RIGHT(DEC2BIN(_xlfn.BITXOR(BIN2DEC(E41),BIN2DEC(G40))),7)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B42" s="17" t="s">
@@ -9864,8 +9877,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B43" s="17" t="s">
@@ -9890,8 +9903,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
@@ -9916,8 +9929,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B45" s="17" t="s">
@@ -9942,8 +9955,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
@@ -9968,8 +9981,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B47" s="17" t="s">
@@ -9994,8 +10007,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
@@ -10020,8 +10033,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="17" t="s">
@@ -10046,8 +10059,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="17" t="s">
@@ -10072,8 +10085,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="17" t="s">
@@ -10098,8 +10111,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="17" t="s">
@@ -10124,8 +10137,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="17" t="s">
@@ -10150,8 +10163,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="17" t="s">
@@ -10176,8 +10189,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="17" t="s">
@@ -10202,8 +10215,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="17" t="s">
@@ -10228,8 +10241,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="17" t="s">
@@ -10254,8 +10267,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="17" t="s">
@@ -10280,8 +10293,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="17" t="s">
@@ -10306,8 +10319,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="17" t="s">
@@ -10332,8 +10345,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="17" t="s">
@@ -10358,8 +10371,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="17" t="s">
@@ -10384,8 +10397,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H62" s="23"/>
-      <c r="I62" s="23"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="17" t="s">
@@ -10410,8 +10423,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H63" s="23"/>
-      <c r="I63" s="23"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="17" t="s">
@@ -10436,8 +10449,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H64" s="23"/>
-      <c r="I64" s="23"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="17" t="s">
@@ -10462,8 +10475,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H65" s="23"/>
-      <c r="I65" s="23"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E66" s="11"/>
@@ -10482,6 +10495,75 @@
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:G6"/>
+    <mergeCell ref="H5:W5"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="H3:W4"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:G10"/>
+    <mergeCell ref="H9:W9"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:G8"/>
+    <mergeCell ref="H7:W7"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:G12"/>
+    <mergeCell ref="H11:W11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:G14"/>
+    <mergeCell ref="H13:W13"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:G16"/>
+    <mergeCell ref="H15:W15"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:G18"/>
+    <mergeCell ref="H17:W17"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:G20"/>
+    <mergeCell ref="H19:W19"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:G22"/>
+    <mergeCell ref="H21:W21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="H27:W27"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:G26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:G28"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:G24"/>
+    <mergeCell ref="H23:W23"/>
+    <mergeCell ref="H25:W25"/>
+    <mergeCell ref="E29:G30"/>
+    <mergeCell ref="H29:W29"/>
+    <mergeCell ref="E33:G34"/>
+    <mergeCell ref="H31:W31"/>
+    <mergeCell ref="H33:W33"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="I38:I65"/>
@@ -10498,75 +10580,6 @@
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:G30"/>
-    <mergeCell ref="H29:W29"/>
-    <mergeCell ref="E33:G34"/>
-    <mergeCell ref="H31:W31"/>
-    <mergeCell ref="H33:W33"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:G24"/>
-    <mergeCell ref="H23:W23"/>
-    <mergeCell ref="H25:W25"/>
-    <mergeCell ref="H27:W27"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:G26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:G28"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:G20"/>
-    <mergeCell ref="H19:W19"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:G22"/>
-    <mergeCell ref="H21:W21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:G16"/>
-    <mergeCell ref="H15:W15"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:G18"/>
-    <mergeCell ref="H17:W17"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:G12"/>
-    <mergeCell ref="H11:W11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:G14"/>
-    <mergeCell ref="H13:W13"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:G8"/>
-    <mergeCell ref="H7:W7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:G10"/>
-    <mergeCell ref="H9:W9"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="H3:W4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:G6"/>
-    <mergeCell ref="H5:W5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
